--- a/doc/12_画像認識/RaspberryPi_顔認識&勤怠管理.xlsx
+++ b/doc/12_画像認識/RaspberryPi_顔認識&勤怠管理.xlsx
@@ -37,6 +37,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">本書は、</t>
     </r>
@@ -56,6 +57,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">で</t>
     </r>
@@ -75,6 +77,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">の顔認識システム（</t>
     </r>
@@ -94,6 +97,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）を用いた簡易な勤怠管理システムの構築手順を示すものである。</t>
     </r>
@@ -115,6 +119,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">対象ディレクトリ：</t>
     </r>
@@ -126,7 +131,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">src_teamA/attendanceManager</t>
+      <t xml:space="preserve">src_teamA/facebot</t>
     </r>
   </si>
   <si>
@@ -142,6 +147,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">・</t>
     </r>
@@ -161,6 +167,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">上の</t>
     </r>
@@ -180,6 +187,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">プログラムから</t>
     </r>
@@ -199,6 +207,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">を利用し、顔認識を行う。</t>
     </r>
@@ -210,6 +219,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">・顔認識時に勤怠情報を</t>
     </r>
@@ -229,6 +239,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">に登録・更新する。</t>
     </r>
@@ -240,6 +251,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">・撮影時に撮影音を出し、</t>
     </r>
@@ -259,6 +271,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">上に登録済みの人物であれば</t>
     </r>
@@ -278,6 +291,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">音を、それ以外は</t>
     </r>
@@ -297,6 +311,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">音を出す。</t>
     </r>
@@ -311,6 +326,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">・</t>
     </r>
@@ -330,6 +346,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">に</t>
     </r>
@@ -349,6 +366,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">のインストールが完了していること。</t>
     </r>
@@ -360,6 +378,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">・</t>
     </r>
@@ -379,6 +398,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">がインターネット環境に接続できること。</t>
     </r>
@@ -390,6 +410,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">・</t>
     </r>
@@ -409,6 +430,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">が利用可能な状態になっていること。</t>
     </r>
@@ -429,6 +451,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">・</t>
     </r>
@@ -448,6 +471,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">本体</t>
     </r>
@@ -459,6 +483,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">・</t>
     </r>
@@ -478,6 +503,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">画面表示用ディスプレイ</t>
     </r>
@@ -489,6 +515,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">・</t>
     </r>
@@ -508,6 +535,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">専用カメラ</t>
     </r>
@@ -519,6 +547,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">・モーションセンサー（</t>
     </r>
@@ -538,6 +567,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -574,6 +604,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">とイヤホンジャックの間にある差し込み口にカメラから伸びる配線を差し込む。</t>
     </r>
@@ -585,6 +616,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">左右の出っ張りを少し持ち上げて、下記図のように青い部分がイヤホンジャックに向くように差し込み、出っ張りを戻せば</t>
     </r>
@@ -604,6 +636,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。</t>
     </r>
@@ -621,6 +654,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">１．２．</t>
     </r>
@@ -640,6 +674,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">側の設定</t>
     </r>
@@ -651,6 +686,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">画面左上のラズベリーマークから「設定」→「</t>
     </r>
@@ -670,6 +706,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">の設定」をクリックする。</t>
     </r>
@@ -684,6 +721,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">１．３．</t>
     </r>
@@ -703,6 +741,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">モジュールのインストール</t>
     </r>
@@ -726,6 +765,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">以下コード内容の</t>
     </r>
@@ -745,6 +785,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ファイルを作成する。</t>
     </r>
@@ -756,6 +797,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">パス：</t>
     </r>
@@ -808,6 +850,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">初期化    </t>
     </r>
@@ -832,6 +875,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">写真サイズ</t>
     </r>
@@ -853,6 +897,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">映像を上下逆に</t>
     </r>
@@ -874,6 +919,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">映像を左右逆に</t>
     </r>
@@ -895,6 +941,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">明るさを</t>
     </r>
@@ -914,6 +961,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">に</t>
     </r>
@@ -938,6 +986,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">枚撮影</t>
     </r>
@@ -962,6 +1011,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">写真撮影</t>
     </r>
@@ -983,6 +1033,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">撮影</t>
     </r>
@@ -1004,6 +1055,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">指定回数撮影</t>
     </r>
@@ -1028,6 +1080,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">回連続で撮影します。</t>
     </r>
@@ -1047,6 +1100,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">顔の角度をゆっくり変え続けてください。</t>
     </r>
@@ -1081,6 +1135,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">プレビューの表示</t>
     </r>
@@ -1102,6 +1157,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">引数の</t>
     </r>
@@ -1121,6 +1177,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">回分撮影</t>
     </r>
@@ -1153,6 +1210,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">２．４で作成した</t>
     </r>
@@ -1172,6 +1230,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ファイルを実行する。</t>
     </r>
@@ -1183,6 +1242,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">同ディレクトリ内に、”</t>
     </r>
@@ -1202,6 +1262,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">のファイルが作成されており、カメラの画像が撮影されていることを確認する。</t>
     </r>
@@ -1213,6 +1274,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">２．１．</t>
     </r>
@@ -1232,6 +1294,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">へのサインイン</t>
     </r>
@@ -1243,6 +1306,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">下記</t>
     </r>
@@ -1262,6 +1326,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">からサインインする。</t>
     </r>
@@ -1279,6 +1344,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">２．２．</t>
     </r>
@@ -1298,6 +1364,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">リソースの作成</t>
     </r>
@@ -1312,6 +1379,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">②フィルターの入力欄に「</t>
     </r>
@@ -1331,6 +1399,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">」を入力しエンターを押下する。</t>
     </r>
@@ -1342,6 +1411,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">　「</t>
     </r>
@@ -1361,6 +1431,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">」が表示されるのでクリックする。</t>
     </r>
@@ -1388,6 +1459,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：任意</t>
     </r>
@@ -1405,6 +1477,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">価格レベル：</t>
     </r>
@@ -1436,6 +1509,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：新規作成（値は任意）</t>
     </r>
@@ -1456,6 +1530,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">③「</t>
     </r>
@@ -1475,6 +1550,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">」にある「</t>
     </r>
@@ -1494,6 +1570,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">」リンクをクリックする。</t>
     </r>
@@ -1505,6 +1582,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">④表示される</t>
     </r>
@@ -1524,6 +1602,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">を控えておく。</t>
     </r>
@@ -1541,6 +1620,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">・</t>
     </r>
@@ -1560,6 +1640,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">回</t>
     </r>
@@ -1579,6 +1660,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">分</t>
     </r>
@@ -1590,6 +1672,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">・</t>
     </r>
@@ -1609,6 +1692,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">回</t>
     </r>
@@ -1628,6 +1712,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月</t>
     </r>
@@ -1649,6 +1734,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">のリファレンス（使い方）は、上記１．３③で表示される「２　</t>
     </r>
@@ -1668,6 +1754,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">」の「</t>
     </r>
@@ -1687,6 +1774,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">」リンクから参照できる。</t>
     </r>
@@ -1698,6 +1786,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">　手順通りに進めれば利用可能ではあるが、</t>
     </r>
@@ -1717,6 +1806,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">の動作などを確認する際は参照すること。</t>
     </r>
@@ -1761,6 +1851,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">※ファイル名が同じであれば、好きな音声ファイルを準備して</t>
     </r>
@@ -1785,6 +1876,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">利用する音声ファイルを</t>
     </r>
@@ -1804,6 +1896,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">に格納する。</t>
     </r>
@@ -1840,6 +1933,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">音</t>
     </r>
@@ -1864,6 +1958,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">音</t>
     </r>
@@ -1878,6 +1973,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">コンソールから</t>
     </r>
@@ -1897,6 +1993,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">で、以下</t>
     </r>
@@ -1916,6 +2013,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">を実行する。</t>
     </r>
@@ -1927,6 +2025,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">データベース名（</t>
     </r>
@@ -1946,6 +2045,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）は作成済みのものに合わせて変更要。</t>
     </r>
@@ -1976,6 +2076,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テーブル</t>
     </r>
@@ -2005,6 +2106,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ユーザ</t>
     </r>
@@ -2024,6 +2126,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。</t>
     </r>
@@ -2043,6 +2146,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">上に登録される</t>
     </r>
@@ -2062,6 +2166,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">と同じ値を利用。</t>
     </r>
@@ -2082,6 +2187,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ユーザ名。</t>
     </r>
@@ -2101,6 +2207,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">内のみで利用。</t>
     </r>
@@ -2118,6 +2225,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">在室フラグ（在室：</t>
     </r>
@@ -2137,6 +2245,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">不在：</t>
     </r>
@@ -2156,6 +2265,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）。</t>
     </r>
@@ -2177,6 +2287,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テーブル</t>
     </r>
@@ -2209,6 +2320,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">４．１．</t>
     </r>
@@ -2228,6 +2340,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">プログラムの作成</t>
     </r>
@@ -2249,6 +2362,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">を操作するプログラム作成</t>
     </r>
@@ -2260,6 +2374,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">　以下コード内容の</t>
     </r>
@@ -2279,6 +2394,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ファイルを作成する。</t>
     </r>
@@ -2290,6 +2406,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">　</t>
     </r>
@@ -2309,6 +2426,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">変数の値は２で取得した</t>
     </r>
@@ -2328,6 +2446,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">の値を設定する。</t>
     </r>
@@ -2339,6 +2458,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">　パス：</t>
     </r>
@@ -2382,6 +2502,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">の</t>
     </r>
@@ -2401,6 +2522,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">東アジア用</t>
     </r>
@@ -2445,6 +2567,7 @@
         <color rgb="FFFF3333"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">の値を設定</t>
     </r>
@@ -2478,6 +2601,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">グループ作成</t>
     </r>
@@ -2502,6 +2626,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">グループ作成開始</t>
     </r>
@@ -2560,6 +2685,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">グループ作成完了</t>
     </r>
@@ -2591,6 +2717,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">人物作成</t>
     </r>
@@ -2615,6 +2742,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">作成開始</t>
     </r>
@@ -2664,6 +2792,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">作成完了</t>
     </r>
@@ -2698,6 +2827,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">人物削除</t>
     </r>
@@ -2722,6 +2852,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">削除開始</t>
     </r>
@@ -2765,6 +2896,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">削除完了</t>
     </r>
@@ -2796,6 +2928,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">人物写真登録</t>
     </r>
@@ -2820,6 +2953,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">写真登録開始</t>
     </r>
@@ -2860,6 +2994,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">枚の写真を登録します（登録後の写真データは削除します）</t>
     </r>
@@ -2918,6 +3053,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">登録完了後のデータは削除</t>
     </r>
@@ -2939,6 +3075,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">制限</t>
     </r>
@@ -2958,6 +3095,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">回</t>
     </r>
@@ -2977,6 +3115,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">分</t>
     </r>
@@ -2996,6 +3135,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">のため</t>
     </r>
@@ -3015,6 +3155,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">秒間隔で実行</t>
     </r>
@@ -3036,6 +3177,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">写真登録完了</t>
     </r>
@@ -3067,6 +3209,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">トレーニング開始</t>
     </r>
@@ -3091,6 +3234,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">学習開始</t>
     </r>
@@ -3128,6 +3272,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">学習終了</t>
     </r>
@@ -3159,6 +3304,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">トレーニング状況確認</t>
     </r>
@@ -3189,6 +3335,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">人物検出</t>
     </r>
@@ -3231,6 +3378,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">人物特定</t>
     </r>
@@ -3267,6 +3415,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">指定人物の確信度を取得</t>
     </r>
@@ -3312,6 +3461,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">最も似ている候補を取得</t>
     </r>
@@ -3344,6 +3494,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">②カメラと</t>
     </r>
@@ -3363,6 +3514,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">を利用した勤怠管理プログラム作成</t>
     </r>
@@ -3374,6 +3526,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">　パス：</t>
     </r>
@@ -3426,6 +3579,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">定数定義</t>
     </r>
@@ -3462,6 +3616,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">初期化</t>
     </r>
@@ -3492,6 +3647,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">インスタンス生成</t>
     </r>
@@ -3543,6 +3699,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">の人物を登録</t>
     </r>
@@ -3588,6 +3745,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ユーザ</t>
     </r>
@@ -3607,6 +3765,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">登録完了</t>
     </r>
@@ -3638,6 +3797,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">の人物を検索</t>
     </r>
@@ -3671,6 +3831,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">未登録であれば</t>
     </r>
@@ -3690,6 +3851,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">を返却</t>
     </r>
@@ -3723,6 +3885,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">登録済みであればユーザ情報を返却</t>
     </r>
@@ -3759,6 +3922,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">の人物の出勤情報を登録</t>
     </r>
@@ -3795,6 +3959,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">本日の出勤情報が未登録であれば新規登録</t>
     </r>
@@ -3825,6 +3990,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">登録済みであれば、</t>
     </r>
@@ -3844,6 +4010,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">する場合のみ更新</t>
     </r>
@@ -3874,6 +4041,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ユーザーの</t>
     </r>
@@ -3893,6 +4061,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">状態を更新</t>
     </r>
@@ -3926,6 +4095,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">人物作成とトレーニング</t>
     </r>
@@ -3956,6 +4126,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">だが予備のため</t>
     </r>
@@ -3999,6 +4170,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">人物写真追加</t>
     </r>
@@ -4026,6 +4198,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">全ユーザ取得</t>
     </r>
@@ -4080,6 +4253,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">社内にいるユーザ取得</t>
     </r>
@@ -4107,6 +4281,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">指定</t>
     </r>
@@ -4126,6 +4301,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">のユーザの状態取得</t>
     </r>
@@ -4171,6 +4347,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">写真撮影</t>
     </r>
@@ -4192,6 +4369,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">動作を検知しました。撮影します。</t>
     </r>
@@ -4229,6 +4407,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">写真解析</t>
     </r>
@@ -4248,6 +4427,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">写真上で一番大きな顔の人物）</t>
     </r>
@@ -4272,6 +4452,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">顔が認識されない場合は再度ループ</t>
     </r>
@@ -4299,6 +4480,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">顔が認識できませんでした。</t>
     </r>
@@ -4333,6 +4515,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">対象人物の候補を取得</t>
     </r>
@@ -4363,6 +4546,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">が</t>
     </r>
@@ -4382,6 +4566,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">未満の場合は再度ループ</t>
     </r>
@@ -4406,6 +4591,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">未登録の顔です。</t>
     </r>
@@ -4440,6 +4626,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">が未登録の場合も再度ループ</t>
     </r>
@@ -4464,6 +4651,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">出勤</t>
     </r>
@@ -4483,6 +4671,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">退勤と状態を更新</t>
     </r>
@@ -4510,6 +4699,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">こんにちは！</t>
     </r>
@@ -4529,6 +4719,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">さん</t>
     </r>
@@ -4616,6 +4807,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">①「</t>
     </r>
@@ -4635,6 +4827,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">」を引数「</t>
     </r>
@@ -4654,6 +4847,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">」付きで実行する。</t>
     </r>
@@ -4665,6 +4859,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">②「</t>
     </r>
@@ -4684,6 +4879,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">」と表示されたらユーザ名を入力する。</t>
     </r>
@@ -4742,6 +4938,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">作成開始</t>
     </r>
@@ -4766,6 +4963,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">作成完了</t>
     </r>
@@ -4787,6 +4985,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">回連続で撮影します。</t>
     </r>
@@ -4814,6 +5013,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">では</t>
     </r>
@@ -4833,6 +5033,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">人につき</t>
     </r>
@@ -4852,6 +5053,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">枚の写真が登録可能。顔が認識できない写真があった場合登録できないため、予備として</t>
     </r>
@@ -4871,6 +5073,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">回撮影している。</t>
     </r>
@@ -4892,6 +5095,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">を通して撮影した写真が全て登録されるのを待つ（</t>
     </r>
@@ -4911,6 +5115,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">分ほど）</t>
     </r>
@@ -4922,6 +5127,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">　</t>
     </r>
@@ -4941,6 +5147,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">回</t>
     </r>
@@ -4960,6 +5167,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">分の制約があるため、</t>
     </r>
@@ -4979,6 +5187,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">秒おきに登録する。</t>
     </r>
@@ -4990,6 +5199,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">　コンソール上で「</t>
     </r>
@@ -5009,6 +5219,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">」と表示されたものは登録が正常に完了している。</t>
     </r>
@@ -5020,6 +5231,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">　「</t>
     </r>
@@ -5039,6 +5251,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">」となったものは登録エラー。（顔が認識できなかった写真など）</t>
     </r>
@@ -5050,6 +5263,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">⑤「</t>
     </r>
@@ -5069,6 +5283,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">」を引数「</t>
     </r>
@@ -5088,6 +5303,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">」付きで実行する。</t>
     </r>
@@ -5104,6 +5320,7 @@
         <color rgb="FFFF3333"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">表示例： </t>
     </r>
@@ -5137,6 +5354,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">※登録時に、ユーザを一意に特定する「</t>
     </r>
@@ -5156,6 +5374,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">」が自動的に割り当てられている。</t>
     </r>
@@ -5170,6 +5389,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">①「</t>
     </r>
@@ -5189,6 +5409,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">」を引数なしで実行する。</t>
     </r>
@@ -5206,6 +5427,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">音声：</t>
     </r>
@@ -5225,6 +5447,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">音</t>
     </r>
@@ -5242,6 +5465,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">こんにちは！</t>
     </r>
@@ -5261,6 +5485,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">さん</t>
     </r>
@@ -5275,6 +5500,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">音声：</t>
     </r>
@@ -5294,6 +5520,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">音</t>
     </r>
@@ -5327,6 +5554,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">上で</t>
     </r>
@@ -5346,6 +5574,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テーブルが更新されていることを確認する。</t>
     </r>
@@ -5360,6 +5589,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">各ユーザの「</t>
     </r>
@@ -5379,6 +5609,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">」が、顔認識時に更新されている。（</t>
     </r>
@@ -5398,6 +5629,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -5419,6 +5651,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">上で</t>
     </r>
@@ -5438,6 +5671,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テーブルが更新されていることを確認する。</t>
     </r>
@@ -5462,6 +5696,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：各ユーザの顔認識した当日の一番早い時間が設定されている。</t>
     </r>
@@ -5483,6 +5718,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：各ユーザの顔認識した当日の一番遅い時間が設定されている。（当日は</t>
     </r>
@@ -5502,6 +5738,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">度しか顔認識していない場合は</t>
     </r>
@@ -5521,6 +5758,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -5532,6 +5770,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">※上記は</t>
     </r>
@@ -5551,6 +5790,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">上で確認しているが、</t>
     </r>
@@ -5570,6 +5810,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">上で</t>
     </r>
@@ -5589,6 +5830,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">情報を取得すれば</t>
     </r>
@@ -5608,6 +5850,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">を利用して</t>
     </r>
@@ -5627,6 +5870,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">から状態確認も可能となる。</t>
     </r>
@@ -5645,6 +5889,7 @@
       <color rgb="FF000000"/>
       <name val="IPA Pゴシック"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -5680,6 +5925,7 @@
       <color rgb="FF000000"/>
       <name val="IPA Pゴシック"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -5704,6 +5950,7 @@
       <color rgb="FFFF3333"/>
       <name val="IPA Pゴシック"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -5711,6 +5958,7 @@
       <color rgb="FF000000"/>
       <name val="IPA Pゴシック"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -5975,7 +6223,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6074,9 +6322,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>221400</xdr:colOff>
+      <xdr:colOff>220680</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:rowOff>156600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6090,7 +6338,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="408240" y="636120"/>
-          <a:ext cx="3915720" cy="2325240"/>
+          <a:ext cx="3915000" cy="2324520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6116,9 +6364,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>110520</xdr:colOff>
+      <xdr:colOff>109800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
+      <xdr:rowOff>153360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6132,7 +6380,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="388800" y="2318040"/>
-          <a:ext cx="13923360" cy="1875600"/>
+          <a:ext cx="13922640" cy="1874880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6153,9 +6401,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>119520</xdr:colOff>
+      <xdr:colOff>118800</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6169,7 +6417,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="388440" y="4637160"/>
-          <a:ext cx="11092320" cy="5180760"/>
+          <a:ext cx="11091600" cy="5180040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6190,9 +6438,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>92160</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>174960</xdr:rowOff>
+      <xdr:rowOff>174240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6206,7 +6454,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="389160" y="12934800"/>
-          <a:ext cx="12642120" cy="5095080"/>
+          <a:ext cx="12641400" cy="5094360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6232,9 +6480,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>93600</xdr:colOff>
+      <xdr:colOff>92880</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6248,7 +6496,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="361800" y="4147200"/>
-          <a:ext cx="7936920" cy="3590640"/>
+          <a:ext cx="7936200" cy="3589920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6274,9 +6522,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>187920</xdr:colOff>
+      <xdr:colOff>187200</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>137880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6290,7 +6538,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="408240" y="5739480"/>
-          <a:ext cx="7984800" cy="1409400"/>
+          <a:ext cx="7984080" cy="1408680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6311,9 +6559,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>164880</xdr:colOff>
+      <xdr:colOff>164160</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6327,7 +6575,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="547200" y="8470080"/>
-          <a:ext cx="7507440" cy="1504440"/>
+          <a:ext cx="7506720" cy="1503720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
